--- a/python/eq.xlsx
+++ b/python/eq.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\CVC\CNRS\gitcnrs\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68643903-7938-4748-9CA9-05A1B2C2A6B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4E595B-8847-44DA-ADA5-934D7BFBB4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>1.1.1</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>1.4.1</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
   </si>
 </sst>
 </file>
@@ -389,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,4 +559,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1735568E-161C-4847-AAD2-E5802C1ED646}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1.5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>